--- a/Line_move/Arduino_PID/таблица.xlsx
+++ b/Line_move/Arduino_PID/таблица.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>kp</t>
   </si>
@@ -36,6 +36,12 @@
   </si>
   <si>
     <t>t</t>
+  </si>
+  <si>
+    <t>speed</t>
+  </si>
+  <si>
+    <t>№</t>
   </si>
 </sst>
 </file>
@@ -354,25 +360,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:F1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>3</v>
       </c>
     </row>

--- a/Line_move/Arduino_PID/таблица.xlsx
+++ b/Line_move/Arduino_PID/таблица.xlsx
@@ -360,9 +360,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
@@ -386,6 +388,186 @@
         <v>3</v>
       </c>
     </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>255</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>255</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>255</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>255</v>
+      </c>
+      <c r="C5">
+        <v>4</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>255</v>
+      </c>
+      <c r="C6">
+        <v>5</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>255</v>
+      </c>
+      <c r="C7">
+        <v>5</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0.1</v>
+      </c>
+      <c r="F7">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>255</v>
+      </c>
+      <c r="C8">
+        <v>5</v>
+      </c>
+      <c r="D8">
+        <v>0.1</v>
+      </c>
+      <c r="E8">
+        <v>0.1</v>
+      </c>
+      <c r="F8">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>255</v>
+      </c>
+      <c r="C9">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="D9">
+        <v>0.2</v>
+      </c>
+      <c r="E9">
+        <v>0.3</v>
+      </c>
+      <c r="F9">
+        <v>42.6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>255</v>
+      </c>
+      <c r="C10">
+        <v>4.8</v>
+      </c>
+      <c r="D10">
+        <v>0.2</v>
+      </c>
+      <c r="E10">
+        <v>0.3</v>
+      </c>
+      <c r="F10">
+        <v>43.43</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
